--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195187.11233004</v>
+        <v>208913.4704674582</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.803230223</v>
+      </c>
+      <c r="C2" t="n">
+        <v>491565.803230223</v>
+      </c>
+      <c r="D2" t="n">
         <v>491565.8032302231</v>
-      </c>
-      <c r="C2" t="n">
-        <v>491565.8032302229</v>
-      </c>
-      <c r="D2" t="n">
-        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
         <v>60733.3297755166</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508093</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508326</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9677.756701508151</v>
       </c>
       <c r="E6" t="n">
         <v>-75978.28232949178</v>
